--- a/Project3/brute_data_8.xlsx
+++ b/Project3/brute_data_8.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\ComputationalPhysics\Projects\Gruppe\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03227B4A-C68D-434F-A946-E3AA053807B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87898318-F107-C443-8436-B9741876D133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet name="brute_data_7" sheetId="1" r:id="rId1"/>
+    <sheet name="brute_data_8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,13 +35,13 @@
     <t>STD</t>
   </si>
   <si>
-    <t>INTEGRAL</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>AVG</t>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -40,14 +50,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,28 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,14 +147,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,7 +162,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,14 +170,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,16 +885,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -895,151 +901,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>5.13862E-3</v>
+        <v>4.2016400000000004E-3</v>
       </c>
       <c r="C2">
-        <v>0.18412096550000001</v>
+        <v>0.19667958790000001</v>
       </c>
       <c r="D2">
-        <v>8.5952932999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10.318210710000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>7.5056723240000001E-3</v>
+        <v>4.2077294269999999E-3</v>
       </c>
       <c r="C3">
-        <v>0.19623833960000001</v>
+        <v>0.19545529859999999</v>
       </c>
       <c r="D3">
-        <v>10.372828200000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.7879965609999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>1.0789642340000001E-2</v>
+        <v>2.9395806710000002E-3</v>
       </c>
       <c r="C4">
-        <v>0.20854549829999999</v>
+        <v>0.19420223510000001</v>
       </c>
       <c r="D4">
-        <v>6.4378568999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.7708063989999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>5.1596391959999998E-3</v>
+        <v>2.928382592E-3</v>
       </c>
       <c r="C5">
-        <v>0.18134799500000001</v>
+        <v>0.18750689300000001</v>
       </c>
       <c r="D5">
-        <v>7.1711444999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10.156909600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>5.2703332580000001E-3</v>
+        <v>5.3210824170000001E-3</v>
       </c>
       <c r="C6">
-        <v>0.1807267894</v>
+        <v>0.1971346225</v>
       </c>
       <c r="D6">
-        <v>7.5301308000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.7783151700000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>9.6567959769999993E-3</v>
+        <v>3.0321153160000002E-3</v>
       </c>
       <c r="C7">
-        <v>0.20449373279999999</v>
+        <v>0.19150690279999999</v>
       </c>
       <c r="D7">
-        <v>6.6163847999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10.322280709999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>6.5629072700000004E-3</v>
+        <v>3.3166973409999999E-3</v>
       </c>
       <c r="C8">
-        <v>0.1866215715</v>
+        <v>0.1966689365</v>
       </c>
       <c r="D8">
-        <v>6.8411007000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.7815942000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>6.1360165599999997E-3</v>
+        <v>4.0906527439999998E-3</v>
       </c>
       <c r="C9">
-        <v>0.19568146189999999</v>
+        <v>0.19761765719999999</v>
       </c>
       <c r="D9">
-        <v>6.6572636000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.78071834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>7.1199181900000004E-3</v>
+        <v>3.9082149310000003E-3</v>
       </c>
       <c r="C10">
-        <v>0.19023675640000001</v>
+        <v>0.19692111970000001</v>
       </c>
       <c r="D10">
-        <v>6.4565972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.7667625729999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>7.4081212249999997E-3</v>
+        <v>2.8331296209999999E-3</v>
       </c>
       <c r="C11">
-        <v>0.2022488234</v>
+        <v>0.19054986830000001</v>
       </c>
       <c r="D11">
-        <v>6.4184662000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.8020628579999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>7.0747666339999989E-3</v>
+        <v>3.6779225059999998E-3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>0.19302619337999999</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.19442431216</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7.30970662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <f>AVERAGE(D2:D11)</f>
+        <v>9.9265657121000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>1.902677327395636E-3</v>
+        <v>8.0598559702960203E-4</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>9.9472911088548666E-3</v>
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>3.438142608377083E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1.2697956466199676</v>
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>0.2384676233177099</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project3/brute_data_8.xlsx
+++ b/Project3/brute_data_8.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87898318-F107-C443-8436-B9741876D133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8ACCBB-0424-9947-92E2-400DB6521578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brute_data_8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Varaince</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,137 +887,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>4.2016400000000004E-3</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>1.7653778689600002E-5</v>
+      </c>
+      <c r="D2">
         <v>0.19667958790000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10.318210710000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>4.2077294269999999E-3</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.7704986930841747E-5</v>
+      </c>
+      <c r="D3">
         <v>0.19545529859999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9.7879965609999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2.9395806710000002E-3</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>8.641134521316811E-6</v>
+      </c>
+      <c r="D4">
         <v>0.19420223510000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.7708063989999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2.928382592E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.5754246051286383E-6</v>
+      </c>
+      <c r="D5">
         <v>0.18750689300000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.156909600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5.3210824170000001E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.8313918088506563E-5</v>
+      </c>
+      <c r="D6">
         <v>0.1971346225</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.7783151700000008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3.0321153160000002E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9.1937232895217815E-6</v>
+      </c>
+      <c r="D7">
         <v>0.19150690279999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10.322280709999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3.3166973409999999E-3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.100048125179647E-5</v>
+      </c>
+      <c r="D8">
         <v>0.1966689365</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9.7815942000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4.0906527439999998E-3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.6733439871994728E-5</v>
+      </c>
+      <c r="D9">
         <v>0.19761765719999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9.78071834</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3.9082149310000003E-3</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5274143946891336E-5</v>
+      </c>
+      <c r="D10">
         <v>0.19692111970000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9.7667625729999994</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2.8331296209999999E-3</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8.0266234493876025E-6</v>
+      </c>
+      <c r="D11">
         <v>0.19054986830000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>9.8020628579999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1021,28 +1073,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19442431216</v>
+        <v>1.4111765464498569E-5</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19442431216</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>9.9265657121000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>8.0598559702960203E-4</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>3.438142608377083E-3</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>3.438142608377083E-3</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>0.2384676233177099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>3.7565629855625432E-3</v>
       </c>
     </row>
   </sheetData>
